--- a/checkTimeConstraint.xlsx
+++ b/checkTimeConstraint.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Helena\Desktop\feup-iope\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6657B8E6-0B2F-409B-AEA2-4C84FE97AEF6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07BFDF5D-F75A-44E0-B3EC-04D843E0EAE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{7679C9B3-9A8B-4A63-B01A-C6D24FA3EC09}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="2" xr2:uid="{7679C9B3-9A8B-4A63-B01A-C6D24FA3EC09}"/>
   </bookViews>
   <sheets>
-    <sheet name="Folha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Tempo" sheetId="2" r:id="rId1"/>
+    <sheet name="Verificação" sheetId="1" r:id="rId2"/>
+    <sheet name="Folha3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,9 +36,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
   <si>
     <t>Tipo 1</t>
+  </si>
+  <si>
+    <t>DOCE</t>
+  </si>
+  <si>
+    <t>BOM</t>
+  </si>
+  <si>
+    <t>SKY</t>
+  </si>
+  <si>
+    <t>MOON</t>
+  </si>
+  <si>
+    <t>MARS</t>
+  </si>
+  <si>
+    <t>t[1,1]</t>
+  </si>
+  <si>
+    <t>t[2,1]</t>
+  </si>
+  <si>
+    <t>t[3,1]</t>
+  </si>
+  <si>
+    <t>t[4,1]</t>
+  </si>
+  <si>
+    <t>t[5,1]</t>
+  </si>
+  <si>
+    <t>t[6,1]</t>
+  </si>
+  <si>
+    <t>t[7,1]</t>
+  </si>
+  <si>
+    <t>t[8,1]</t>
+  </si>
+  <si>
+    <t>t[9,1]</t>
+  </si>
+  <si>
+    <t>t[10,1]</t>
+  </si>
+  <si>
+    <t>t[11,1]</t>
+  </si>
+  <si>
+    <t>t[12,1]</t>
+  </si>
+  <si>
+    <t>t[13,1]</t>
+  </si>
+  <si>
+    <t>t[14,1]</t>
+  </si>
+  <si>
+    <t>t[15,1]</t>
+  </si>
+  <si>
+    <t>t[16,1]</t>
+  </si>
+  <si>
+    <t>t[17,1]</t>
+  </si>
+  <si>
+    <t>t[18,1]</t>
   </si>
 </sst>
 </file>
@@ -52,12 +123,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -72,16 +149,268 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -390,369 +719,1506 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1BC7AC8-8433-4323-97E5-724E83F5CE78}">
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>6000</v>
+      </c>
+      <c r="E2">
+        <v>5000</v>
+      </c>
+      <c r="F2">
+        <v>5500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>6000</v>
+      </c>
+      <c r="E3">
+        <v>5800</v>
+      </c>
+      <c r="F3">
+        <v>4800</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>500</v>
+      </c>
+      <c r="F4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="2">
+        <f>D2/25*2</f>
+        <v>480</v>
+      </c>
+      <c r="F11" s="2">
+        <f>D2/20*2</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
+        <f>F2/25*2</f>
+        <v>440</v>
+      </c>
+      <c r="F12" s="2">
+        <f>F2/20*2</f>
+        <v>550</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="2">
+        <f>D2/25+F4/30+F2/25</f>
+        <v>526.66666666666674</v>
+      </c>
+      <c r="F13" s="2">
+        <f>D2/20+F4/24+F2/20</f>
+        <v>658.33333333333326</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="2">
+        <f>F2/25 + F4/30 + D2/25</f>
+        <v>526.66666666666674</v>
+      </c>
+      <c r="F14">
+        <f>F2/20 + F4/24 + D2/20</f>
+        <v>658.33333333333326</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B15" s="2">
+        <f>D3/25*2</f>
+        <v>480</v>
+      </c>
+      <c r="F15">
+        <f>D3/20*2</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="2">
+        <f>F3/25*2</f>
+        <v>384</v>
+      </c>
+      <c r="F16">
+        <f>F3/20*2</f>
+        <v>480</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="2">
+        <f>D3/25+F4/30+F3/25</f>
+        <v>498.66666666666669</v>
+      </c>
+      <c r="F17">
+        <f>D3/20+F4/24+F3/20</f>
+        <v>623.33333333333326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="2">
+        <f>F3/25+F4/30+D3/25</f>
+        <v>498.66666666666669</v>
+      </c>
+      <c r="F18">
+        <f>F3/20+F4/24+D3/20</f>
+        <v>623.33333333333326</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>14</v>
+      </c>
+      <c r="B19" s="2">
+        <f>E2/25 * 2</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2">
+        <f>D2/25+E4/30+E2/25</f>
+        <v>456.66666666666669</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2">
+        <f>E2/25+F5/30+F2/25</f>
+        <v>453.33333333333337</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2">
+        <f>E2/25+E4/30+D2/25</f>
+        <v>456.66666666666663</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="2">
+        <f>F2/25+F5/30+E2/25</f>
+        <v>453.33333333333337</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="2">
+        <f>E3/25*2</f>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25" s="2">
+        <f>D3/25+E4/30+E3/25</f>
+        <v>488.66666666666669</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>21</v>
+      </c>
+      <c r="B26" s="2">
+        <f>E3/25+F5/30+F3/25</f>
+        <v>457.33333333333331</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B27" s="2">
+        <f>E3/25+E4/30+D3/25</f>
+        <v>488.66666666666663</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>23</v>
+      </c>
+      <c r="B28" s="2">
+        <f>F3/25+F5/30+E3/25</f>
+        <v>457.33333333333337</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B858EE32-E234-4CBF-A7ED-23A2B4112E51}">
-  <dimension ref="A1:P49"/>
+  <dimension ref="A2:U51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" customWidth="1"/>
+    <col min="5" max="5" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <f>Tempo!B11</f>
+        <v>480</v>
+      </c>
+      <c r="C4">
+        <f>Tempo!B12</f>
+        <v>440</v>
+      </c>
+      <c r="D4">
+        <f>Tempo!B13</f>
+        <v>526.66666666666674</v>
+      </c>
+      <c r="E4">
+        <f>Tempo!B14</f>
+        <v>526.66666666666674</v>
+      </c>
+      <c r="F4">
+        <f>Tempo!B15</f>
+        <v>480</v>
+      </c>
+      <c r="G4">
+        <f>Tempo!B16</f>
+        <v>384</v>
+      </c>
+      <c r="H4">
+        <f>Tempo!B17</f>
+        <v>498.66666666666669</v>
+      </c>
+      <c r="I4">
+        <f>Tempo!B18</f>
+        <v>498.66666666666669</v>
+      </c>
+      <c r="J4">
+        <f>Tempo!B19</f>
+        <v>400</v>
+      </c>
+      <c r="K4">
+        <f>Tempo!B20</f>
+        <v>456.66666666666669</v>
+      </c>
+      <c r="L4">
+        <f>Tempo!B21</f>
+        <v>453.33333333333337</v>
+      </c>
+      <c r="M4">
+        <f>Tempo!B22</f>
+        <v>456.66666666666663</v>
+      </c>
+      <c r="N4">
+        <f>Tempo!B23</f>
+        <v>453.33333333333337</v>
+      </c>
+      <c r="O4">
+        <f>Tempo!B24</f>
+        <v>464</v>
+      </c>
+      <c r="P4">
+        <f>Tempo!B25</f>
+        <v>488.66666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="N5">
+        <v>13</v>
+      </c>
+      <c r="O5">
+        <v>14</v>
+      </c>
+      <c r="P5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>17</v>
+      </c>
+      <c r="M6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <f>B6*B4+C6*C4+D6*D4+E6*E4+F6*F4+G6*G4+H6*H4+I6*I4+J6*J4+K6*K4+L6*L4+M6*M4+N6*N4+O6*O4+P6*P4</f>
+        <v>8170</v>
+      </c>
+      <c r="U6">
+        <f>(365-20)*24</f>
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <f>A6+1</f>
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>20</v>
+      </c>
+      <c r="S7">
+        <f>B7*B4+C7*C4+D7*D4+E7*E4+F7*F4+G7*G4+H7*H4+I7*I4+J7*J4+K7*K4+L7*L4+M7*M4+N7*N4+O7*O4+P7*P4</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <f t="shared" ref="A8:A51" si="0">A7+1</f>
+        <v>3</v>
+      </c>
+      <c r="J8">
+        <v>16</v>
+      </c>
+      <c r="M8">
+        <v>4</v>
+      </c>
+      <c r="S8">
+        <f>B8*B4+C8*C4+D8*D4+E8*E4+F8*F4+G8*G4+H8*H4+I8*I4+J8*J4+K8*K4+L8*L4+M8*M4+N8*N4+O8*O4+P8*P4</f>
+        <v>8226.6666666666661</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>16</v>
+      </c>
+      <c r="M9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <f>B9*B4+C9*C4+D9*D4+E9*E4+F9*F4+G9*G4+H9*H4+I9*I4+J9*J4+K9*K4+L9*L4+M9*M4+N9*N4+O9*O4+P9*P4</f>
+        <v>8226.6666666666661</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="J10">
+        <v>20</v>
+      </c>
+      <c r="S10">
+        <f>B10*B4+C10*C4+D10*D4+E10*E4+F10*F4+G10*G4+H10*H4+I10*I4+J10*J4+K10*K4+L10*L4+M10*M4+N10*N4+O10*O4+P10*P4</f>
+        <v>8000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="J11">
+        <v>16</v>
+      </c>
+      <c r="M11">
+        <v>4</v>
+      </c>
+      <c r="S11">
+        <f>B11*B4+C11*C4+D11*D4+E11*E4+F11*F4+G11*G4+H11*H4+I11*I4+J11*J4+K11*K4+L11*L4+M11*M4+N11*N4+O11*O4+P11*P4</f>
+        <v>8226.6666666666661</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="J12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="J13">
+        <v>10</v>
+      </c>
+      <c r="M13">
+        <v>9</v>
+      </c>
+      <c r="S13">
+        <f>B13*B4+C13*C4+D13*D4+E13*E4+F13*F4+G13*G4+H13*H4+I13*I4+J13*J4+K13*K4+L13*L4+M13*M4+N13*N4+O13*O4+P13*P4</f>
+        <v>8110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="J14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="J15">
+        <v>16</v>
+      </c>
+      <c r="M15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="J16">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="J17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="J18">
+        <v>19</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="S18">
+        <f>B18*B4+C18*C4+D18*D4+E18*E4+F18*F4+G18*G4+H18*H4+I18*I4+J18*J4+K18*K4+L18*L4+M18*M4+N18*N4+O18*O4+P18*P4</f>
+        <v>8053.333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="J19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="J20">
+        <v>16</v>
+      </c>
+      <c r="M20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="J21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="M22">
+        <v>18</v>
+      </c>
+      <c r="S22">
+        <f>B22*B4+C22*C4+D22*D4+E22*E4+F22*F4+G22*G4+H22*H4+I22*I4+J22*J4+K22*K4+L22*L4+M22*M4+N22*N4+O22*O4+P22*P4</f>
+        <v>8220</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>A22+1</f>
+        <v>18</v>
+      </c>
+      <c r="M23">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="M24">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="M25">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="M26">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="M27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="M28">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f t="shared" si="0"/>
+        <v>24</v>
+      </c>
+      <c r="M29">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="M30">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <f t="shared" si="0"/>
+        <v>26</v>
+      </c>
+      <c r="M31">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="M32">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>A32+1</f>
+        <v>28</v>
+      </c>
+      <c r="M33">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="M34">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="M35">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+      <c r="M36">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <f t="shared" si="0"/>
+        <v>32</v>
+      </c>
+      <c r="M37">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+      <c r="M38">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <f t="shared" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="M39">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+      <c r="M40">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="M41">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="M42">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <f t="shared" si="0"/>
+        <v>38</v>
+      </c>
+      <c r="M43">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+      <c r="M44">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <f>A44+1</f>
+        <v>40</v>
+      </c>
+      <c r="M45">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <f t="shared" si="0"/>
+        <v>41</v>
+      </c>
+      <c r="M46">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <f t="shared" si="0"/>
+        <v>42</v>
+      </c>
+      <c r="M47">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <f t="shared" si="0"/>
+        <v>43</v>
+      </c>
+      <c r="M48">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <f t="shared" si="0"/>
+        <v>44</v>
+      </c>
+      <c r="M49">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <f>A49+1</f>
+        <v>45</v>
+      </c>
+      <c r="M50">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="M51">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A2:F2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="S6:S13">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="greaterThan">
+      <formula>8280</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{502B1484-80FF-4CD9-A687-77639CCAA45E}">
+  <dimension ref="A3:O204"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="B3">
-        <v>1</v>
+        <f>Tempo!F11</f>
+        <v>600</v>
       </c>
       <c r="C3">
+        <f>Tempo!F12</f>
+        <v>550</v>
+      </c>
+      <c r="D3">
+        <f>Tempo!F13</f>
+        <v>658.33333333333326</v>
+      </c>
+      <c r="E3">
+        <f>Tempo!F14</f>
+        <v>658.33333333333326</v>
+      </c>
+      <c r="F3">
+        <f>Tempo!F15</f>
+        <v>600</v>
+      </c>
+      <c r="G3">
+        <f>Tempo!F16</f>
+        <v>480</v>
+      </c>
+      <c r="H3">
+        <f>Tempo!F17</f>
+        <v>623.33333333333326</v>
+      </c>
+      <c r="I3">
+        <f>Tempo!F18</f>
+        <v>623.33333333333326</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>3</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>4</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>5</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>7</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>8</v>
       </c>
-      <c r="J3">
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="L5">
+        <f>B5*B3+C5*C3+D5*D3+E5*E3+F5*F3+G5*G3+H5*H3+I5*I3</f>
+        <v>8250</v>
+      </c>
+      <c r="O5">
+        <f>(365-20)*24</f>
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>16</v>
+      </c>
+      <c r="L6">
+        <f>B6*B3+C6*C3+D6*D3+E6*E3+F6*F3+G6*G3+H6*H3+I6*I3</f>
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>16</v>
+      </c>
+      <c r="L7">
+        <f>B7*B3+C7*C3+D7*D3+E7*E3+F7*F3+G7*G3+H7*H3+I7*I3</f>
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>16</v>
+      </c>
+      <c r="L8">
+        <f>B8*B3+C8*C3+D8*D3+E8*E3+F8*F3+G8*G3+H8*H3+I8*I3</f>
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>16</v>
+      </c>
+      <c r="L9">
+        <f>B9*B3+C9*C3+D9*D3+E9*E3+F9*F3+G9*G3+H9*H3+I9*I3</f>
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>3</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
+      </c>
+      <c r="L10">
+        <f>B10*B3+C10*C3+D10*D3+E10*E3+F10*F3+G10*G3+H10*H3+I10*I3</f>
+        <v>8110</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>16</v>
+      </c>
+      <c r="L11">
+        <f>B11*B3+C11*C3+D11*D3+E11*E3+F11*F3+G11*G3+H11*H3+I11*I3</f>
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="G12">
+        <v>17</v>
+      </c>
+      <c r="L12">
+        <f>B12*B3+C12*C3+D12*D3+E12*E3+F12*F3+G12*G3+H12*H3+I12*I3</f>
+        <v>8160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>9</v>
       </c>
-      <c r="K3">
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>16</v>
+      </c>
+      <c r="L13">
+        <f>B13*B3+C13*C3+D13*D3+E13*E3+F13*F3+G13*G3+H13*H3+I13*I3</f>
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>10</v>
       </c>
-      <c r="L3">
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>11</v>
       </c>
-      <c r="M3">
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <f>A15+1</f>
         <v>12</v>
       </c>
-      <c r="N3">
+      <c r="F16">
         <v>13</v>
       </c>
-      <c r="O3">
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="L16">
+        <f>B16*B3+C16*C3+D16*D3+E16*E3+F16*F3+G16*G3+H16*H3+I16*I3</f>
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <f>A16+1</f>
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <f>A17+1</f>
         <v>14</v>
       </c>
-      <c r="P3">
+      <c r="F18">
+        <v>13</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <f>A18+1</f>
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <f>A4+1</f>
-        <v>2</v>
-      </c>
-      <c r="J5">
-        <v>7</v>
-      </c>
-      <c r="M5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <f t="shared" ref="A6:A49" si="0">A5+1</f>
-        <v>3</v>
-      </c>
-      <c r="J6">
-        <v>7</v>
-      </c>
-      <c r="M6">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="J7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <f t="shared" si="0"/>
+      <c r="F19">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <f t="shared" si="0"/>
+      <c r="G19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <f>A19+1</f>
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="F20">
+        <v>13</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <f>A20+1</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>5</v>
+      </c>
+      <c r="G21">
+        <v>11</v>
+      </c>
+      <c r="L21">
+        <f>B21*B3+C21*C3+D21*D3+E21*E3+F21*F3+G21*G3+H21*H3+I21*I3</f>
+        <v>8030</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22">
-        <f t="shared" si="0"/>
+        <f>A21+1</f>
+        <v>18</v>
+      </c>
+      <c r="C22">
+        <v>12</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <f>B22*B3+C22*C3+D22*D3+E22*E3+F22*F3+G22*G3+H22*H3+I22*I3</f>
+        <v>7800</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <f>A22+1</f>
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <f t="shared" si="0"/>
+      <c r="F23">
+        <v>13</v>
+      </c>
+      <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <f>B23*B3+C23*C3+D23*D3+E23*E3+F23*F3+G23*G3+H23*H3+I23*I3</f>
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <f>A23+1</f>
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <f t="shared" si="0"/>
+      <c r="F24">
+        <v>13</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <f>A24+1</f>
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <f t="shared" si="0"/>
+      <c r="F25">
+        <v>13</v>
+      </c>
+      <c r="G25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <f>A25+1</f>
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <f t="shared" si="0"/>
+      <c r="F26">
+        <v>13</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <f>A26+1</f>
         <v>23</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <f t="shared" si="0"/>
+      <c r="F27">
+        <v>13</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <f>A27+1</f>
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <f t="shared" si="0"/>
+      <c r="F28">
+        <v>13</v>
+      </c>
+      <c r="G28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <f>A28+1</f>
         <v>25</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <f t="shared" si="0"/>
+      <c r="F29">
+        <v>13</v>
+      </c>
+      <c r="G29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <f>A29+1</f>
         <v>26</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30">
+        <v>11</v>
+      </c>
+      <c r="L30">
+        <f>B30*B3+C30*C3+D30*D3+E30*E3+F30*F3+G30*G3+H30*H3+I30*I3</f>
+        <v>8130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31">
         <f>A30+1</f>
+        <v>27</v>
+      </c>
+      <c r="F31">
+        <v>13</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <f>B31*B3+C31*C3+D31*D3+E31*E3+F31*F3+G31*G3+H31*H3+I31*I3</f>
+        <v>8280</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <f>A31+1</f>
         <v>28</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <f t="shared" si="0"/>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>12</v>
+      </c>
+      <c r="G32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <f>A32+1</f>
         <v>29</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <f t="shared" si="0"/>
+      <c r="F33">
+        <v>13</v>
+      </c>
+      <c r="G33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <f t="shared" ref="A34:A43" si="0">A33+1</f>
         <v>30</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34">
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35">
+      <c r="F35">
+        <v>13</v>
+      </c>
+      <c r="G35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36">
+      <c r="F36">
+        <v>13</v>
+      </c>
+      <c r="G36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37">
+      <c r="F37">
+        <v>14</v>
+      </c>
+      <c r="G37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38">
+      <c r="F38">
+        <v>13</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39">
+      <c r="F39">
+        <v>13</v>
+      </c>
+      <c r="G39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40">
+      <c r="C40">
+        <v>13</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <f>A42+1</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <f t="shared" si="0"/>
-        <v>41</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <f t="shared" si="0"/>
-        <v>42</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <f t="shared" si="0"/>
-        <v>43</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <f t="shared" si="0"/>
-        <v>44</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <f>A47+1</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <f t="shared" si="0"/>
-        <v>46</v>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A204">
+        <f>A33+1</f>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
-  </mergeCells>
+  <conditionalFormatting sqref="L5:L16">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="lessThan">
+      <formula>8280</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="greaterThan">
+      <formula>8280</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L21:L23">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+      <formula>8280</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+      <formula>8280</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L31">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
+      <formula>8280</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>